--- a/01_data/supervisar_clases.xlsx
+++ b/01_data/supervisar_clases.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego AB\Develop\blackboard-automate-bot\01_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE72244-3DAC-4C23-A34B-A43A4B746471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="operativo" sheetId="1" r:id="rId1"/>
     <sheet name="resumen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="76">
   <si>
     <t>SOPORTE</t>
   </si>
@@ -248,12 +267,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,58 +305,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaOperativa" displayName="TablaOperativa" ref="A1:L642" totalsRowShown="0">
-  <autoFilter ref="A1:L642"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TablaOperativa" displayName="TablaOperativa" ref="A1:L642" totalsRowShown="0">
+  <autoFilter ref="A1:L642" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2026" month="1" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="SOPORTE"/>
-    <tableColumn id="2" name="CURSO"/>
-    <tableColumn id="3" name="DOCENTE"/>
-    <tableColumn id="4" name="PERIODO"/>
-    <tableColumn id="5" name="NRC"/>
-    <tableColumn id="6" name="ID"/>
-    <tableColumn id="7" name="SESIÓN"/>
-    <tableColumn id="8" name="FECHAS"/>
-    <tableColumn id="9" name="HORA_INICIO"/>
-    <tableColumn id="10" name="HORA_FIN"/>
-    <tableColumn id="11" name="ESTADO DE CLASE"/>
-    <tableColumn id="12" name="ESTADO_CURSO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SOPORTE"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CURSO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DOCENTE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PERIODO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NRC"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SESIÓN"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="FECHAS"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="HORA_INICIO"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="HORA_FIN"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ESTADO DE CLASE"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="ESTADO_CURSO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TablaResumen" displayName="TablaResumen" ref="A1:E29" totalsRowShown="0">
-  <autoFilter ref="A1:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TablaResumen" displayName="TablaResumen" ref="A1:E29" totalsRowShown="0">
+  <autoFilter ref="A1:E29" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ACTIVO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="CURSO"/>
-    <tableColumn id="3" name="DOCENTE"/>
-    <tableColumn id="4" name="ESTADO_CURSO"/>
-    <tableColumn id="5" name="Total Sesiones"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CURSO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DOCENTE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ESTADO_CURSO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Total Sesiones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +414,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -410,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -444,9 +483,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,12 +659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L642"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H655" sqref="H655"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
@@ -633,7 +675,7 @@
     <col min="7" max="12" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -709,7 +751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,7 +789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -785,7 +827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,7 +865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -861,7 +903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -899,7 +941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -937,7 +979,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -975,7 +1017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1127,7 +1169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1355,7 +1397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1431,7 +1473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1659,7 +1701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -1697,7 +1739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1811,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1887,7 +1929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1963,7 +2005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2043,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2077,7 +2119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -2267,7 +2309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -2305,7 +2347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +2385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -2495,7 +2537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -2533,7 +2575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -2571,7 +2613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -2609,7 +2651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -2647,7 +2689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -2685,7 +2727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -2723,7 +2765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -2761,7 +2803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -2799,7 +2841,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2879,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2917,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -2913,7 +2955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
@@ -2951,7 +2993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -2989,7 +3031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
@@ -3027,7 +3069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
@@ -3065,7 +3107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -3103,7 +3145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -3217,7 +3259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -3255,7 +3297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +3335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +3449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -3483,7 +3525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -3521,7 +3563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -3597,7 +3639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -3635,7 +3677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -3711,7 +3753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -3749,7 +3791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -3787,7 +3829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -3825,7 +3867,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -3863,7 +3905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -3977,7 +4019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -4053,7 +4095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -4129,7 +4171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -4167,7 +4209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +4247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -4243,7 +4285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -4281,7 +4323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -4357,7 +4399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -4395,7 +4437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -4433,7 +4475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -4471,7 +4513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -4547,7 +4589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -4623,7 +4665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -4661,7 +4703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -4699,7 +4741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -4737,7 +4779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -4775,7 +4817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -4813,7 +4855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -4851,7 +4893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -4889,7 +4931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -4927,7 +4969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -4965,7 +5007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -5041,7 +5083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -5079,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -5117,7 +5159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>12</v>
       </c>
@@ -5155,7 +5197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -5190,7 +5232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -5295,7 +5337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -5365,7 +5407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -5400,7 +5442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>12</v>
       </c>
@@ -5435,7 +5477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>12</v>
       </c>
@@ -5470,7 +5512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>12</v>
       </c>
@@ -5505,7 +5547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>12</v>
       </c>
@@ -5540,7 +5582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>12</v>
       </c>
@@ -5575,7 +5617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -5610,7 +5652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>12</v>
       </c>
@@ -5645,7 +5687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>12</v>
       </c>
@@ -5715,7 +5757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>12</v>
       </c>
@@ -5785,7 +5827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -5820,7 +5862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>12</v>
       </c>
@@ -5855,7 +5897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>12</v>
       </c>
@@ -5925,7 +5967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
@@ -5960,7 +6002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>12</v>
       </c>
@@ -5995,7 +6037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
@@ -6030,7 +6072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>12</v>
       </c>
@@ -6065,7 +6107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -6100,7 +6142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -6135,7 +6177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -6205,7 +6247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -6240,7 +6282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -6275,7 +6317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -6310,7 +6352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -6345,7 +6387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -6380,7 +6422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -6415,7 +6457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -6450,7 +6492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -6485,7 +6527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
@@ -6520,7 +6562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -6555,7 +6597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
@@ -6590,7 +6632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -6625,7 +6667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -6660,7 +6702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -6695,7 +6737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -6730,7 +6772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>12</v>
       </c>
@@ -6765,7 +6807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
@@ -6800,7 +6842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
@@ -6835,7 +6877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -6870,7 +6912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>12</v>
       </c>
@@ -6905,7 +6947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>12</v>
       </c>
@@ -6940,7 +6982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>12</v>
       </c>
@@ -6975,7 +7017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
@@ -7010,7 +7052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>12</v>
       </c>
@@ -7045,7 +7087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -7080,7 +7122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
@@ -7115,7 +7157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>12</v>
       </c>
@@ -7185,7 +7227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>12</v>
       </c>
@@ -7220,7 +7262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
@@ -7290,7 +7332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>12</v>
       </c>
@@ -7325,7 +7367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>12</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>12</v>
       </c>
@@ -7395,7 +7437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>12</v>
       </c>
@@ -7430,7 +7472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -7465,7 +7507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>12</v>
       </c>
@@ -7500,7 +7542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>12</v>
       </c>
@@ -7570,7 +7612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>12</v>
       </c>
@@ -7605,7 +7647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>12</v>
       </c>
@@ -7640,7 +7682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
@@ -7710,7 +7752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>12</v>
       </c>
@@ -7745,7 +7787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +7822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>12</v>
       </c>
@@ -7815,7 +7857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -7850,7 +7892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>12</v>
       </c>
@@ -7885,7 +7927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>12</v>
       </c>
@@ -7920,7 +7962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>12</v>
       </c>
@@ -7955,7 +7997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>12</v>
       </c>
@@ -7990,7 +8032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>12</v>
       </c>
@@ -8025,7 +8067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>12</v>
       </c>
@@ -8060,7 +8102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>12</v>
       </c>
@@ -8095,7 +8137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>12</v>
       </c>
@@ -8130,7 +8172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -8165,7 +8207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>12</v>
       </c>
@@ -8200,7 +8242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>12</v>
       </c>
@@ -8235,7 +8277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>12</v>
       </c>
@@ -8270,7 +8312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>12</v>
       </c>
@@ -8305,7 +8347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>12</v>
       </c>
@@ -8340,7 +8382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>12</v>
       </c>
@@ -8375,7 +8417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>12</v>
       </c>
@@ -8410,7 +8452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
@@ -8445,7 +8487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>12</v>
       </c>
@@ -8480,7 +8522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>12</v>
       </c>
@@ -8515,7 +8557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>12</v>
       </c>
@@ -8550,7 +8592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>12</v>
       </c>
@@ -8585,7 +8627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>12</v>
       </c>
@@ -8620,7 +8662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>12</v>
       </c>
@@ -8655,7 +8697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
@@ -8690,7 +8732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>12</v>
       </c>
@@ -8725,7 +8767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>12</v>
       </c>
@@ -8760,7 +8802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>12</v>
       </c>
@@ -8795,7 +8837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>12</v>
       </c>
@@ -8830,7 +8872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>12</v>
       </c>
@@ -8865,7 +8907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>12</v>
       </c>
@@ -8900,7 +8942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>12</v>
       </c>
@@ -8935,7 +8977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +9012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>12</v>
       </c>
@@ -9005,7 +9047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>12</v>
       </c>
@@ -9040,7 +9082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>12</v>
       </c>
@@ -9075,7 +9117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>12</v>
       </c>
@@ -9110,7 +9152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -9145,7 +9187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>12</v>
       </c>
@@ -9180,7 +9222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>12</v>
       </c>
@@ -9215,7 +9257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>12</v>
       </c>
@@ -9250,7 +9292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>12</v>
       </c>
@@ -9285,7 +9327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>12</v>
       </c>
@@ -9320,7 +9362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>12</v>
       </c>
@@ -9355,7 +9397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>12</v>
       </c>
@@ -9390,7 +9432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>12</v>
       </c>
@@ -9425,7 +9467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -9460,7 +9502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>12</v>
       </c>
@@ -9495,7 +9537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
@@ -9530,7 +9572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>12</v>
       </c>
@@ -9565,7 +9607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
@@ -9600,7 +9642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
@@ -9635,7 +9677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -9670,7 +9712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
@@ -9705,7 +9747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
@@ -9740,7 +9782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -9775,7 +9817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -9810,7 +9852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -9845,7 +9887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -9880,7 +9922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -9915,7 +9957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -9950,7 +9992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -9985,7 +10027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -10020,7 +10062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -10055,7 +10097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -10090,7 +10132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -10125,7 +10167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -10160,7 +10202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -10195,7 +10237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -10230,7 +10272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -10265,7 +10307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -10300,7 +10342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -10335,7 +10377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -10370,7 +10412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -10405,7 +10447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -10440,7 +10482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -10475,7 +10517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -10510,7 +10552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -10545,7 +10587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -10580,7 +10622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>12</v>
       </c>
@@ -10615,7 +10657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>12</v>
       </c>
@@ -10650,7 +10692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>12</v>
       </c>
@@ -10685,7 +10727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>12</v>
       </c>
@@ -10720,7 +10762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>12</v>
       </c>
@@ -10755,7 +10797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>12</v>
       </c>
@@ -10790,7 +10832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>12</v>
       </c>
@@ -10825,7 +10867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>12</v>
       </c>
@@ -10860,7 +10902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>12</v>
       </c>
@@ -10895,7 +10937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>12</v>
       </c>
@@ -10930,7 +10972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>12</v>
       </c>
@@ -10965,7 +11007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>12</v>
       </c>
@@ -11000,7 +11042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>12</v>
       </c>
@@ -11035,7 +11077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>12</v>
       </c>
@@ -11070,7 +11112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>12</v>
       </c>
@@ -11105,7 +11147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>12</v>
       </c>
@@ -11140,7 +11182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>12</v>
       </c>
@@ -11175,7 +11217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>12</v>
       </c>
@@ -11210,7 +11252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>12</v>
       </c>
@@ -11245,7 +11287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>12</v>
       </c>
@@ -11280,7 +11322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>12</v>
       </c>
@@ -11315,7 +11357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
@@ -11350,7 +11392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>12</v>
       </c>
@@ -11385,7 +11427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>12</v>
       </c>
@@ -11420,7 +11462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>12</v>
       </c>
@@ -11455,7 +11497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -11490,7 +11532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>12</v>
       </c>
@@ -11525,7 +11567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>12</v>
       </c>
@@ -11560,7 +11602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>12</v>
       </c>
@@ -11595,7 +11637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>12</v>
       </c>
@@ -11630,7 +11672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>12</v>
       </c>
@@ -11665,7 +11707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>12</v>
       </c>
@@ -11700,7 +11742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>12</v>
       </c>
@@ -11735,7 +11777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>12</v>
       </c>
@@ -11770,7 +11812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>12</v>
       </c>
@@ -11805,7 +11847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>12</v>
       </c>
@@ -11840,7 +11882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>12</v>
       </c>
@@ -11875,7 +11917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>12</v>
       </c>
@@ -11910,7 +11952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>12</v>
       </c>
@@ -11945,7 +11987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>12</v>
       </c>
@@ -11980,7 +12022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>12</v>
       </c>
@@ -12015,7 +12057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>12</v>
       </c>
@@ -12050,7 +12092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>12</v>
       </c>
@@ -12085,7 +12127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>12</v>
       </c>
@@ -12120,7 +12162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>12</v>
       </c>
@@ -12155,7 +12197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>12</v>
       </c>
@@ -12190,7 +12232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>12</v>
       </c>
@@ -12225,7 +12267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>12</v>
       </c>
@@ -12260,7 +12302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>12</v>
       </c>
@@ -12295,7 +12337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>12</v>
       </c>
@@ -12330,7 +12372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>12</v>
       </c>
@@ -12365,7 +12407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>12</v>
       </c>
@@ -12400,7 +12442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>12</v>
       </c>
@@ -12435,7 +12477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>12</v>
       </c>
@@ -12470,7 +12512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>12</v>
       </c>
@@ -12505,7 +12547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>12</v>
       </c>
@@ -12540,7 +12582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>12</v>
       </c>
@@ -12575,7 +12617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>12</v>
       </c>
@@ -12610,7 +12652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>12</v>
       </c>
@@ -12645,7 +12687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>12</v>
       </c>
@@ -12680,7 +12722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>12</v>
       </c>
@@ -12715,7 +12757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>12</v>
       </c>
@@ -12750,7 +12792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>12</v>
       </c>
@@ -12785,7 +12827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>12</v>
       </c>
@@ -12820,7 +12862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>12</v>
       </c>
@@ -12855,7 +12897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>12</v>
       </c>
@@ -12890,7 +12932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>12</v>
       </c>
@@ -12925,7 +12967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>12</v>
       </c>
@@ -12960,7 +13002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>12</v>
       </c>
@@ -12995,7 +13037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>12</v>
       </c>
@@ -13030,7 +13072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>12</v>
       </c>
@@ -13065,7 +13107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>12</v>
       </c>
@@ -13100,7 +13142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>12</v>
       </c>
@@ -13135,7 +13177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>12</v>
       </c>
@@ -13170,7 +13212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>12</v>
       </c>
@@ -13205,7 +13247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>12</v>
       </c>
@@ -13240,7 +13282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>12</v>
       </c>
@@ -13275,7 +13317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>12</v>
       </c>
@@ -13310,7 +13352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>12</v>
       </c>
@@ -13345,7 +13387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>12</v>
       </c>
@@ -13380,7 +13422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>12</v>
       </c>
@@ -13415,7 +13457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>12</v>
       </c>
@@ -13450,7 +13492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>12</v>
       </c>
@@ -13485,7 +13527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>12</v>
       </c>
@@ -13520,7 +13562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>12</v>
       </c>
@@ -13555,7 +13597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>12</v>
       </c>
@@ -13590,7 +13632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>12</v>
       </c>
@@ -13625,7 +13667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>12</v>
       </c>
@@ -13660,7 +13702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
@@ -13695,7 +13737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>12</v>
       </c>
@@ -13730,7 +13772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>12</v>
       </c>
@@ -13765,7 +13807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>12</v>
       </c>
@@ -13800,7 +13842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>12</v>
       </c>
@@ -13835,7 +13877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>12</v>
       </c>
@@ -13870,7 +13912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>12</v>
       </c>
@@ -13905,7 +13947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>12</v>
       </c>
@@ -13940,7 +13982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>12</v>
       </c>
@@ -13975,7 +14017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>12</v>
       </c>
@@ -14010,7 +14052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>12</v>
       </c>
@@ -14045,7 +14087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>12</v>
       </c>
@@ -14080,7 +14122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>12</v>
       </c>
@@ -14115,7 +14157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>12</v>
       </c>
@@ -14150,7 +14192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>12</v>
       </c>
@@ -14185,7 +14227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>12</v>
       </c>
@@ -14220,7 +14262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>12</v>
       </c>
@@ -14255,7 +14297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>12</v>
       </c>
@@ -14290,7 +14332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>12</v>
       </c>
@@ -14325,7 +14367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>12</v>
       </c>
@@ -14360,7 +14402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>12</v>
       </c>
@@ -14395,7 +14437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>12</v>
       </c>
@@ -14430,7 +14472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>12</v>
       </c>
@@ -14465,7 +14507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>12</v>
       </c>
@@ -14500,7 +14542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>12</v>
       </c>
@@ -14535,7 +14577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>12</v>
       </c>
@@ -14570,7 +14612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>12</v>
       </c>
@@ -14605,7 +14647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>12</v>
       </c>
@@ -14640,7 +14682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>12</v>
       </c>
@@ -14675,7 +14717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>12</v>
       </c>
@@ -14710,7 +14752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>12</v>
       </c>
@@ -14745,7 +14787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>12</v>
       </c>
@@ -14780,7 +14822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>12</v>
       </c>
@@ -14815,7 +14857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>12</v>
       </c>
@@ -14850,7 +14892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>12</v>
       </c>
@@ -14885,7 +14927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>12</v>
       </c>
@@ -14920,7 +14962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>12</v>
       </c>
@@ -14955,7 +14997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>12</v>
       </c>
@@ -14990,7 +15032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>12</v>
       </c>
@@ -15025,7 +15067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>12</v>
       </c>
@@ -15060,7 +15102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>12</v>
       </c>
@@ -15095,7 +15137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>12</v>
       </c>
@@ -15130,7 +15172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>12</v>
       </c>
@@ -15165,7 +15207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>12</v>
       </c>
@@ -15200,7 +15242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>12</v>
       </c>
@@ -15235,7 +15277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>12</v>
       </c>
@@ -15270,7 +15312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>12</v>
       </c>
@@ -15305,7 +15347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>12</v>
       </c>
@@ -15340,7 +15382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>12</v>
       </c>
@@ -15375,7 +15417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>12</v>
       </c>
@@ -15410,7 +15452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>12</v>
       </c>
@@ -15445,7 +15487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>12</v>
       </c>
@@ -15480,7 +15522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>12</v>
       </c>
@@ -15515,7 +15557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>12</v>
       </c>
@@ -15550,7 +15592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>12</v>
       </c>
@@ -15585,7 +15627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>12</v>
       </c>
@@ -15620,7 +15662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>12</v>
       </c>
@@ -15655,7 +15697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>12</v>
       </c>
@@ -15690,7 +15732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>12</v>
       </c>
@@ -15725,7 +15767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>12</v>
       </c>
@@ -15760,7 +15802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>12</v>
       </c>
@@ -15795,7 +15837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>12</v>
       </c>
@@ -15830,7 +15872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>12</v>
       </c>
@@ -15865,7 +15907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>12</v>
       </c>
@@ -15900,7 +15942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>12</v>
       </c>
@@ -15935,7 +15977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>12</v>
       </c>
@@ -15970,7 +16012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>12</v>
       </c>
@@ -16005,7 +16047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>12</v>
       </c>
@@ -16040,7 +16082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>12</v>
       </c>
@@ -16075,7 +16117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>12</v>
       </c>
@@ -16110,7 +16152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>12</v>
       </c>
@@ -16145,7 +16187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>12</v>
       </c>
@@ -16180,7 +16222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>12</v>
       </c>
@@ -16215,7 +16257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>12</v>
       </c>
@@ -16250,7 +16292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>12</v>
       </c>
@@ -16285,7 +16327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>12</v>
       </c>
@@ -16320,7 +16362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>12</v>
       </c>
@@ -16355,7 +16397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>12</v>
       </c>
@@ -16390,7 +16432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>12</v>
       </c>
@@ -16425,7 +16467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>12</v>
       </c>
@@ -16460,7 +16502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>12</v>
       </c>
@@ -16495,7 +16537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>12</v>
       </c>
@@ -16530,7 +16572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>12</v>
       </c>
@@ -16565,7 +16607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>12</v>
       </c>
@@ -16600,7 +16642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>12</v>
       </c>
@@ -16635,7 +16677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>12</v>
       </c>
@@ -16670,7 +16712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>12</v>
       </c>
@@ -16705,7 +16747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>12</v>
       </c>
@@ -16740,7 +16782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>12</v>
       </c>
@@ -16775,7 +16817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>12</v>
       </c>
@@ -16810,7 +16852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>12</v>
       </c>
@@ -16845,7 +16887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>12</v>
       </c>
@@ -16880,7 +16922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>12</v>
       </c>
@@ -16915,7 +16957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>12</v>
       </c>
@@ -16950,7 +16992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>12</v>
       </c>
@@ -16985,7 +17027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>12</v>
       </c>
@@ -17020,7 +17062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>12</v>
       </c>
@@ -17055,7 +17097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>12</v>
       </c>
@@ -17090,7 +17132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>12</v>
       </c>
@@ -17125,7 +17167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>12</v>
       </c>
@@ -17160,7 +17202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>12</v>
       </c>
@@ -17195,7 +17237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>12</v>
       </c>
@@ -17230,7 +17272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>12</v>
       </c>
@@ -17265,7 +17307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>12</v>
       </c>
@@ -17300,7 +17342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>12</v>
       </c>
@@ -17335,7 +17377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>12</v>
       </c>
@@ -17370,7 +17412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>12</v>
       </c>
@@ -17405,7 +17447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>12</v>
       </c>
@@ -17440,7 +17482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>12</v>
       </c>
@@ -17475,7 +17517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>12</v>
       </c>
@@ -17510,7 +17552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>12</v>
       </c>
@@ -17545,7 +17587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>12</v>
       </c>
@@ -17580,7 +17622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>12</v>
       </c>
@@ -17615,7 +17657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>12</v>
       </c>
@@ -17650,7 +17692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>12</v>
       </c>
@@ -17685,7 +17727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>12</v>
       </c>
@@ -17720,7 +17762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>12</v>
       </c>
@@ -17755,7 +17797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>12</v>
       </c>
@@ -17790,7 +17832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>12</v>
       </c>
@@ -17825,7 +17867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>12</v>
       </c>
@@ -17860,7 +17902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>12</v>
       </c>
@@ -17895,7 +17937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>12</v>
       </c>
@@ -17930,7 +17972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>12</v>
       </c>
@@ -17965,7 +18007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>12</v>
       </c>
@@ -18000,7 +18042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>12</v>
       </c>
@@ -18035,7 +18077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>12</v>
       </c>
@@ -18070,7 +18112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>12</v>
       </c>
@@ -18105,7 +18147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>12</v>
       </c>
@@ -18140,7 +18182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>12</v>
       </c>
@@ -18175,7 +18217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>12</v>
       </c>
@@ -18210,7 +18252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>12</v>
       </c>
@@ -18245,7 +18287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>12</v>
       </c>
@@ -18280,7 +18322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>12</v>
       </c>
@@ -18315,7 +18357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>12</v>
       </c>
@@ -18350,7 +18392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>12</v>
       </c>
@@ -18385,7 +18427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>12</v>
       </c>
@@ -18420,7 +18462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>12</v>
       </c>
@@ -18455,7 +18497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>12</v>
       </c>
@@ -18490,7 +18532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>12</v>
       </c>
@@ -18525,7 +18567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>12</v>
       </c>
@@ -18560,7 +18602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>12</v>
       </c>
@@ -18595,7 +18637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>12</v>
       </c>
@@ -18630,7 +18672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>12</v>
       </c>
@@ -18665,7 +18707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>12</v>
       </c>
@@ -18700,7 +18742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>12</v>
       </c>
@@ -18735,7 +18777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>12</v>
       </c>
@@ -18770,7 +18812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>12</v>
       </c>
@@ -18805,7 +18847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>12</v>
       </c>
@@ -18840,7 +18882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>12</v>
       </c>
@@ -18875,7 +18917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>12</v>
       </c>
@@ -18910,7 +18952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>12</v>
       </c>
@@ -18945,7 +18987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>12</v>
       </c>
@@ -18980,7 +19022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>12</v>
       </c>
@@ -19015,7 +19057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>12</v>
       </c>
@@ -19050,7 +19092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>12</v>
       </c>
@@ -19085,7 +19127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>12</v>
       </c>
@@ -19120,7 +19162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>12</v>
       </c>
@@ -19155,7 +19197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>12</v>
       </c>
@@ -19190,7 +19232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>12</v>
       </c>
@@ -19225,7 +19267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>12</v>
       </c>
@@ -19260,7 +19302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>12</v>
       </c>
@@ -19295,7 +19337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>12</v>
       </c>
@@ -19330,7 +19372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>12</v>
       </c>
@@ -19365,7 +19407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>12</v>
       </c>
@@ -19400,7 +19442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>12</v>
       </c>
@@ -19435,7 +19477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>12</v>
       </c>
@@ -19470,7 +19512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>12</v>
       </c>
@@ -19505,7 +19547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>12</v>
       </c>
@@ -19540,7 +19582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>12</v>
       </c>
@@ -19575,7 +19617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>12</v>
       </c>
@@ -19610,7 +19652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>12</v>
       </c>
@@ -19645,7 +19687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>12</v>
       </c>
@@ -19680,7 +19722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>12</v>
       </c>
@@ -19715,7 +19757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>12</v>
       </c>
@@ -19750,7 +19792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>12</v>
       </c>
@@ -19785,7 +19827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>12</v>
       </c>
@@ -19820,7 +19862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>12</v>
       </c>
@@ -19855,7 +19897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>12</v>
       </c>
@@ -19890,7 +19932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>12</v>
       </c>
@@ -19925,7 +19967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>12</v>
       </c>
@@ -19960,7 +20002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>12</v>
       </c>
@@ -19995,7 +20037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:12">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>12</v>
       </c>
@@ -20030,7 +20072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>12</v>
       </c>
@@ -20065,7 +20107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:12">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>12</v>
       </c>
@@ -20100,7 +20142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>12</v>
       </c>
@@ -20135,7 +20177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>12</v>
       </c>
@@ -20170,7 +20212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>12</v>
       </c>
@@ -20205,7 +20247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:12">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>12</v>
       </c>
@@ -20240,7 +20282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="551" spans="1:12">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>12</v>
       </c>
@@ -20275,7 +20317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:12">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>12</v>
       </c>
@@ -20310,7 +20352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:12">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>12</v>
       </c>
@@ -20345,7 +20387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>12</v>
       </c>
@@ -20380,7 +20422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>12</v>
       </c>
@@ -20415,7 +20457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>12</v>
       </c>
@@ -20450,7 +20492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:12">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>12</v>
       </c>
@@ -20485,7 +20527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>12</v>
       </c>
@@ -20520,7 +20562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="559" spans="1:12">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>12</v>
       </c>
@@ -20555,7 +20597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="560" spans="1:12">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>12</v>
       </c>
@@ -20590,7 +20632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="561" spans="1:12">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>12</v>
       </c>
@@ -20625,7 +20667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>12</v>
       </c>
@@ -20660,7 +20702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="563" spans="1:12">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>12</v>
       </c>
@@ -20695,7 +20737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>12</v>
       </c>
@@ -20730,7 +20772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>12</v>
       </c>
@@ -20765,7 +20807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:12">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>12</v>
       </c>
@@ -20800,7 +20842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="567" spans="1:12">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>12</v>
       </c>
@@ -20835,7 +20877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="568" spans="1:12">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>12</v>
       </c>
@@ -20870,7 +20912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="569" spans="1:12">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>12</v>
       </c>
@@ -20905,7 +20947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:12">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>12</v>
       </c>
@@ -20940,7 +20982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>12</v>
       </c>
@@ -20975,7 +21017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="572" spans="1:12">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>12</v>
       </c>
@@ -21010,7 +21052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:12">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>12</v>
       </c>
@@ -21045,7 +21087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:12">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>12</v>
       </c>
@@ -21080,7 +21122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:12">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>12</v>
       </c>
@@ -21115,7 +21157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>12</v>
       </c>
@@ -21150,7 +21192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:12">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>12</v>
       </c>
@@ -21185,7 +21227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:12">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>12</v>
       </c>
@@ -21220,7 +21262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>12</v>
       </c>
@@ -21255,7 +21297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:12">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>12</v>
       </c>
@@ -21290,7 +21332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:12">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>12</v>
       </c>
@@ -21325,7 +21367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:12">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>12</v>
       </c>
@@ -21360,7 +21402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="583" spans="1:12">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>12</v>
       </c>
@@ -21395,7 +21437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:12">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>12</v>
       </c>
@@ -21430,7 +21472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="585" spans="1:12">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>12</v>
       </c>
@@ -21465,7 +21507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>12</v>
       </c>
@@ -21500,7 +21542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>12</v>
       </c>
@@ -21535,7 +21577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>12</v>
       </c>
@@ -21570,7 +21612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="589" spans="1:12">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>12</v>
       </c>
@@ -21605,7 +21647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>12</v>
       </c>
@@ -21640,7 +21682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="591" spans="1:12">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>12</v>
       </c>
@@ -21675,7 +21717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="592" spans="1:12">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>12</v>
       </c>
@@ -21710,7 +21752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>12</v>
       </c>
@@ -21745,7 +21787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>12</v>
       </c>
@@ -21780,7 +21822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="595" spans="1:12">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>12</v>
       </c>
@@ -21815,7 +21857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="596" spans="1:12">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>12</v>
       </c>
@@ -21850,7 +21892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>12</v>
       </c>
@@ -21885,7 +21927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>12</v>
       </c>
@@ -21920,7 +21962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>12</v>
       </c>
@@ -21955,7 +21997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>12</v>
       </c>
@@ -21990,7 +22032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>12</v>
       </c>
@@ -22025,7 +22067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:12">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>12</v>
       </c>
@@ -22060,7 +22102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="603" spans="1:12">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>12</v>
       </c>
@@ -22095,7 +22137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:12">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>12</v>
       </c>
@@ -22130,7 +22172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>12</v>
       </c>
@@ -22165,7 +22207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>12</v>
       </c>
@@ -22200,7 +22242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="607" spans="1:12">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>12</v>
       </c>
@@ -22235,7 +22277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="608" spans="1:12">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>12</v>
       </c>
@@ -22270,7 +22312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="609" spans="1:12">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>12</v>
       </c>
@@ -22305,7 +22347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>12</v>
       </c>
@@ -22340,7 +22382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="611" spans="1:12">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>12</v>
       </c>
@@ -22375,7 +22417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>12</v>
       </c>
@@ -22410,7 +22452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>12</v>
       </c>
@@ -22445,7 +22487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>12</v>
       </c>
@@ -22480,7 +22522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="615" spans="1:12">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>12</v>
       </c>
@@ -22515,7 +22557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="616" spans="1:12">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>12</v>
       </c>
@@ -22550,7 +22592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="617" spans="1:12">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>12</v>
       </c>
@@ -22585,7 +22627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:12">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>12</v>
       </c>
@@ -22620,7 +22662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="619" spans="1:12">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>12</v>
       </c>
@@ -22655,7 +22697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="620" spans="1:12">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>12</v>
       </c>
@@ -22690,7 +22732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="621" spans="1:12">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>12</v>
       </c>
@@ -22725,7 +22767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="622" spans="1:12">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>12</v>
       </c>
@@ -22760,7 +22802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="623" spans="1:12">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>12</v>
       </c>
@@ -22795,7 +22837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="624" spans="1:12">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>12</v>
       </c>
@@ -22830,7 +22872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="625" spans="1:12">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>12</v>
       </c>
@@ -22865,7 +22907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="626" spans="1:12">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>12</v>
       </c>
@@ -22900,7 +22942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="627" spans="1:12">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>12</v>
       </c>
@@ -22935,7 +22977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="628" spans="1:12">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>12</v>
       </c>
@@ -22970,7 +23012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="629" spans="1:12">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>12</v>
       </c>
@@ -23005,7 +23047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>12</v>
       </c>
@@ -23040,7 +23082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="631" spans="1:12">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>12</v>
       </c>
@@ -23075,7 +23117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="632" spans="1:12">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>12</v>
       </c>
@@ -23110,7 +23152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:12">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>12</v>
       </c>
@@ -23145,7 +23187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="634" spans="1:12">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>12</v>
       </c>
@@ -23180,7 +23222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="635" spans="1:12">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>12</v>
       </c>
@@ -23215,7 +23257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="636" spans="1:12">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>12</v>
       </c>
@@ -23250,7 +23292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="637" spans="1:12">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>12</v>
       </c>
@@ -23285,7 +23327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="638" spans="1:12">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>12</v>
       </c>
@@ -23320,7 +23362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="639" spans="1:12">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>12</v>
       </c>
@@ -23355,7 +23397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="640" spans="1:12">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>12</v>
       </c>
@@ -23390,7 +23432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="641" spans="1:12">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>12</v>
       </c>
@@ -23425,7 +23467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="642" spans="1:12">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>12</v>
       </c>
@@ -23469,12 +23511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" customWidth="1"/>
@@ -23482,7 +23526,7 @@
     <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -23499,7 +23543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -23516,7 +23560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -23533,7 +23577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -23550,7 +23594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -23567,7 +23611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -23584,7 +23628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -23601,7 +23645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -23618,7 +23662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -23635,7 +23679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -23652,7 +23696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -23669,7 +23713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -23686,7 +23730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -23703,7 +23747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -23720,7 +23764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -23737,7 +23781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -23754,7 +23798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -23771,7 +23815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -23788,7 +23832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -23805,7 +23849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -23822,7 +23866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -23839,7 +23883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -23856,7 +23900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -23873,7 +23917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -23890,7 +23934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -23907,7 +23951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -23924,7 +23968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -23941,7 +23985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -23958,7 +24002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
